--- a/resources/cv-api_List.xlsx
+++ b/resources/cv-api_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA_Projects\forExperienced\Chavdar-Vishranti\cv-config-repo\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E79D71-496E-4351-ABBB-6E3C9A94532C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C735A07C-3A6D-4AF0-9677-7D3D1C8D30F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{448C3040-1C78-45CD-A1BD-54FF21CBCA27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{448C3040-1C78-45CD-A1BD-54FF21CBCA27}"/>
   </bookViews>
   <sheets>
     <sheet name="admin-ms" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="193">
   <si>
     <t>operationId</t>
   </si>
@@ -611,6 +611,18 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>addHotel</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>/admin/hotel</t>
+  </si>
+  <si>
+    <t>Hotel+Owner (class)</t>
   </si>
 </sst>
 </file>
@@ -663,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -679,6 +691,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -997,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBB053B-49EE-4D81-B5A7-7320C60FAB08}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1075,6 +1090,9 @@
       <c r="E2" t="s">
         <v>60</v>
       </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
@@ -1092,72 +1110,108 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="D3" t="s">
         <v>81</v>
       </c>
       <c r="E3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="J3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
         <v>65</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
         <v>68</v>
       </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
         <v>63</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K5" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>64</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
         <v>81</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
         <v>65</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F6" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J6" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2197,13 +2251,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620526F1-E509-4F1E-B43E-790FA6D378C1}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>

--- a/resources/cv-api_List.xlsx
+++ b/resources/cv-api_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA_Projects\forExperienced\Chavdar-Vishranti\cv-config-repo\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C735A07C-3A6D-4AF0-9677-7D3D1C8D30F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA106D0C-98CF-4EF5-A77E-331BAFDFC8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{448C3040-1C78-45CD-A1BD-54FF21CBCA27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{448C3040-1C78-45CD-A1BD-54FF21CBCA27}"/>
   </bookViews>
   <sheets>
     <sheet name="admin-ms" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="193">
   <si>
     <t>operationId</t>
   </si>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBB053B-49EE-4D81-B5A7-7320C60FAB08}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1369,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B408F2E-A7FC-450C-BEB7-CD14A18BCD81}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1970,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A21EBF5-C51F-4865-81BF-F86184E1BB47}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2240,6 +2240,109 @@
       </c>
       <c r="K11" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
